--- a/results/lenguajes_github.xlsx
+++ b/results/lenguajes_github.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N30"/>
+  <dimension ref="A1:N24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -556,13 +556,13 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
+        <v>2</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E3" t="n">
         <v>3</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0</v>
-      </c>
-      <c r="E3" t="n">
-        <v>5</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -602,16 +602,16 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D4" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E4" t="n">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="F4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -645,19 +645,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C5" t="n">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="D5" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E5" t="n">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="F5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
@@ -691,16 +691,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="D6" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E6" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="F6" t="n">
         <v>4</v>
@@ -740,13 +740,13 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>1</v>
       </c>
       <c r="E7" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -792,7 +792,7 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
@@ -832,13 +832,13 @@
         <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D9" t="n">
         <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F9" t="n">
         <v>0</v>
@@ -884,7 +884,7 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -930,7 +930,7 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
@@ -970,13 +970,13 @@
         <v>0</v>
       </c>
       <c r="C12" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="D12" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E12" t="n">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="F12" t="n">
         <v>0</v>
@@ -1022,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -1065,10 +1065,10 @@
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E14" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
@@ -1108,19 +1108,19 @@
         <v>0</v>
       </c>
       <c r="C15" t="n">
+        <v>1</v>
+      </c>
+      <c r="D15" t="n">
+        <v>1</v>
+      </c>
+      <c r="E15" t="n">
         <v>8</v>
       </c>
-      <c r="D15" t="n">
-        <v>2</v>
-      </c>
-      <c r="E15" t="n">
-        <v>25</v>
-      </c>
       <c r="F15" t="n">
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -1135,7 +1135,7 @@
         <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
         <v>0</v>
@@ -1157,10 +1157,10 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
+        <v>1</v>
+      </c>
+      <c r="E16" t="n">
         <v>2</v>
-      </c>
-      <c r="E16" t="n">
-        <v>4</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -1206,7 +1206,7 @@
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F17" t="n">
         <v>0</v>
@@ -1252,7 +1252,7 @@
         <v>0</v>
       </c>
       <c r="E18" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F18" t="n">
         <v>0</v>
@@ -1295,10 +1295,10 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E19" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
@@ -1482,7 +1482,7 @@
         <v>1</v>
       </c>
       <c r="E23" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F23" t="n">
         <v>0</v>
@@ -1555,282 +1555,6 @@
         <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="1" t="inlineStr">
-        <is>
-          <t>Objective-C</t>
-        </is>
-      </c>
-      <c r="B25" t="n">
-        <v>0</v>
-      </c>
-      <c r="C25" t="n">
-        <v>1</v>
-      </c>
-      <c r="D25" t="n">
-        <v>0</v>
-      </c>
-      <c r="E25" t="n">
-        <v>2</v>
-      </c>
-      <c r="F25" t="n">
-        <v>0</v>
-      </c>
-      <c r="G25" t="n">
-        <v>0</v>
-      </c>
-      <c r="H25" t="n">
-        <v>0</v>
-      </c>
-      <c r="I25" t="n">
-        <v>0</v>
-      </c>
-      <c r="J25" t="n">
-        <v>0</v>
-      </c>
-      <c r="K25" t="n">
-        <v>0</v>
-      </c>
-      <c r="L25" t="n">
-        <v>0</v>
-      </c>
-      <c r="M25" t="n">
-        <v>0</v>
-      </c>
-      <c r="N25" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="1" t="inlineStr">
-        <is>
-          <t>Vim script</t>
-        </is>
-      </c>
-      <c r="B26" t="n">
-        <v>0</v>
-      </c>
-      <c r="C26" t="n">
-        <v>0</v>
-      </c>
-      <c r="D26" t="n">
-        <v>0</v>
-      </c>
-      <c r="E26" t="n">
-        <v>1</v>
-      </c>
-      <c r="F26" t="n">
-        <v>0</v>
-      </c>
-      <c r="G26" t="n">
-        <v>0</v>
-      </c>
-      <c r="H26" t="n">
-        <v>0</v>
-      </c>
-      <c r="I26" t="n">
-        <v>0</v>
-      </c>
-      <c r="J26" t="n">
-        <v>0</v>
-      </c>
-      <c r="K26" t="n">
-        <v>0</v>
-      </c>
-      <c r="L26" t="n">
-        <v>0</v>
-      </c>
-      <c r="M26" t="n">
-        <v>0</v>
-      </c>
-      <c r="N26" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="1" t="inlineStr">
-        <is>
-          <t>Jsonnet</t>
-        </is>
-      </c>
-      <c r="B27" t="n">
-        <v>0</v>
-      </c>
-      <c r="C27" t="n">
-        <v>0</v>
-      </c>
-      <c r="D27" t="n">
-        <v>0</v>
-      </c>
-      <c r="E27" t="n">
-        <v>1</v>
-      </c>
-      <c r="F27" t="n">
-        <v>0</v>
-      </c>
-      <c r="G27" t="n">
-        <v>0</v>
-      </c>
-      <c r="H27" t="n">
-        <v>0</v>
-      </c>
-      <c r="I27" t="n">
-        <v>0</v>
-      </c>
-      <c r="J27" t="n">
-        <v>0</v>
-      </c>
-      <c r="K27" t="n">
-        <v>0</v>
-      </c>
-      <c r="L27" t="n">
-        <v>0</v>
-      </c>
-      <c r="M27" t="n">
-        <v>0</v>
-      </c>
-      <c r="N27" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" s="1" t="inlineStr">
-        <is>
-          <t>Dart</t>
-        </is>
-      </c>
-      <c r="B28" t="n">
-        <v>0</v>
-      </c>
-      <c r="C28" t="n">
-        <v>0</v>
-      </c>
-      <c r="D28" t="n">
-        <v>0</v>
-      </c>
-      <c r="E28" t="n">
-        <v>2</v>
-      </c>
-      <c r="F28" t="n">
-        <v>0</v>
-      </c>
-      <c r="G28" t="n">
-        <v>0</v>
-      </c>
-      <c r="H28" t="n">
-        <v>0</v>
-      </c>
-      <c r="I28" t="n">
-        <v>0</v>
-      </c>
-      <c r="J28" t="n">
-        <v>0</v>
-      </c>
-      <c r="K28" t="n">
-        <v>0</v>
-      </c>
-      <c r="L28" t="n">
-        <v>0</v>
-      </c>
-      <c r="M28" t="n">
-        <v>0</v>
-      </c>
-      <c r="N28" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" s="1" t="inlineStr">
-        <is>
-          <t>PHP</t>
-        </is>
-      </c>
-      <c r="B29" t="n">
-        <v>0</v>
-      </c>
-      <c r="C29" t="n">
-        <v>0</v>
-      </c>
-      <c r="D29" t="n">
-        <v>0</v>
-      </c>
-      <c r="E29" t="n">
-        <v>3</v>
-      </c>
-      <c r="F29" t="n">
-        <v>0</v>
-      </c>
-      <c r="G29" t="n">
-        <v>0</v>
-      </c>
-      <c r="H29" t="n">
-        <v>0</v>
-      </c>
-      <c r="I29" t="n">
-        <v>0</v>
-      </c>
-      <c r="J29" t="n">
-        <v>0</v>
-      </c>
-      <c r="K29" t="n">
-        <v>0</v>
-      </c>
-      <c r="L29" t="n">
-        <v>0</v>
-      </c>
-      <c r="M29" t="n">
-        <v>0</v>
-      </c>
-      <c r="N29" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" s="1" t="inlineStr">
-        <is>
-          <t>SCSS</t>
-        </is>
-      </c>
-      <c r="B30" t="n">
-        <v>0</v>
-      </c>
-      <c r="C30" t="n">
-        <v>1</v>
-      </c>
-      <c r="D30" t="n">
-        <v>0</v>
-      </c>
-      <c r="E30" t="n">
-        <v>1</v>
-      </c>
-      <c r="F30" t="n">
-        <v>0</v>
-      </c>
-      <c r="G30" t="n">
-        <v>0</v>
-      </c>
-      <c r="H30" t="n">
-        <v>0</v>
-      </c>
-      <c r="I30" t="n">
-        <v>0</v>
-      </c>
-      <c r="J30" t="n">
-        <v>0</v>
-      </c>
-      <c r="K30" t="n">
-        <v>0</v>
-      </c>
-      <c r="L30" t="n">
-        <v>0</v>
-      </c>
-      <c r="M30" t="n">
-        <v>0</v>
-      </c>
-      <c r="N30" t="n">
         <v>0</v>
       </c>
     </row>
